--- a/Practica_2/BB/BB_G1_R.xlsx
+++ b/Practica_2/BB/BB_G1_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5988B0-C111-42BF-831E-45B39D2512DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA3720-9C20-414C-97D5-BA986CA6318E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B288E712-75AA-4386-9B63-3FCC7FA9233F}"/>
   </bookViews>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -452,7 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +486,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,52 +849,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C98121A-FD07-4492-98BE-93FAB9EFBD7F}">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
       <c r="AF1" t="s">
         <v>48</v>
       </c>
@@ -2116,11 +2125,11 @@
       <c r="N16">
         <v>61.9</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="25">
         <f t="shared" si="5"/>
         <v>6.5799999999999983</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="23">
         <v>150.75</v>
       </c>
       <c r="Q16" s="15">
@@ -2129,11 +2138,11 @@
       <c r="R16" s="15">
         <v>194000000</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="24">
         <f t="shared" si="6"/>
         <v>0.44582917011987422</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="24">
         <f t="shared" si="9"/>
         <v>0.4853312885177925</v>
       </c>
@@ -2301,10 +2310,10 @@
         <v>46</v>
       </c>
       <c r="D24" s="15">
-        <v>1000000000</v>
+        <v>999000000</v>
       </c>
       <c r="E24" s="15">
-        <v>1170000000</v>
+        <v>1103000000</v>
       </c>
       <c r="F24" s="18">
         <v>4.0000000000000001E-3</v>
@@ -2335,11 +2344,11 @@
       <c r="N24">
         <v>64.016999999999996</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="25">
         <f t="shared" si="5"/>
         <v>8.6969999999999956</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="23">
         <v>150.607</v>
       </c>
       <c r="Q24" s="15">
@@ -2351,13 +2360,13 @@
       <c r="S24" s="15">
         <v>-291000000</v>
       </c>
-      <c r="T24" s="17">
-        <f t="shared" si="6"/>
-        <v>1.1515315031545748</v>
-      </c>
-      <c r="U24" s="17">
+      <c r="T24" s="24">
+        <f>D24/(MAX(Q24:S24)*1.1*1.2*1.1*1.1)-1</f>
+        <v>1.1493799716514204</v>
+      </c>
+      <c r="U24" s="24">
         <f>E24/( MAX( Q24:S24)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>1.2152168356479507</v>
+        <v>1.0883625382219568</v>
       </c>
       <c r="V24" s="15">
         <v>133000000</v>
@@ -2370,11 +2379,11 @@
       </c>
       <c r="Y24" s="22">
         <f t="shared" si="7"/>
-        <v>2.0541252069169826</v>
+        <v>2.0510710817100657</v>
       </c>
       <c r="Z24" s="16">
         <f t="shared" ref="Z24" si="17">E24/( MAX( V24:X24)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>2.1445273130417255</v>
+        <v>1.9644560908419</v>
       </c>
       <c r="AA24" s="15">
         <v>69500000</v>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="AD24" s="16">
         <f t="shared" si="8"/>
-        <v>6.1309301528243889</v>
+        <v>6.1237992226715647</v>
       </c>
       <c r="AE24" s="16">
         <f t="shared" ref="AE24" si="18" xml:space="preserve"> E24/( MAX(AA24:AC24)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>6.3420056853479911</v>
+        <v>5.9215660435374646</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
